--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\land\PLANAbPiaSY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8070" tabRatio="832" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" tabRatio="832"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,12 +23,23 @@
   <definedNames>
     <definedName name="acres_per_million_hectares">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -88,168 +104,156 @@
     <t>Among these pratices, there are indigenous land, natural reserves, conservation</t>
   </si>
   <si>
-    <t>Mha</t>
-  </si>
-  <si>
-    <t>Million acres</t>
-  </si>
-  <si>
     <t>under best management pratices.</t>
   </si>
   <si>
     <t>units, permanent reserved areas, legal private reserves, etc</t>
   </si>
   <si>
-    <t>aims to decrease this value to 20.087 Km².</t>
-  </si>
-  <si>
-    <t>avoided to be defforestated</t>
-  </si>
-  <si>
-    <t>47.334 - 20.087 = 27.247 Km²</t>
+    <t>Great part of this area is likely to be recovery by forest restoration.</t>
+  </si>
+  <si>
+    <t>acres available per year for forest restorarion, considering</t>
+  </si>
+  <si>
+    <t>Avoided Deforestation</t>
+  </si>
+  <si>
+    <t>http://www.mctic.gov.br/mctic/export/sites/institucional/ciencia/SEPED/clima/arquivos/projeto_opcoes_mitigacao/publicacoes/AFOLU.pdf</t>
+  </si>
+  <si>
+    <t>Brazilian Ministry of Science, Technology, Innovation and Communication (MCTIC)</t>
+  </si>
+  <si>
+    <t>Report: "Opções de mitigação de gases de efeito estufa em setores-chave do Brasil"</t>
+  </si>
+  <si>
+    <t>Version: "Modelagem Setorial  de opções de baixo carbono para agricultura, florestas e outros usos do solo (AFOLU)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Restoration </t>
+  </si>
+  <si>
+    <t>Page 216, table 77</t>
+  </si>
+  <si>
+    <t>Area Available for Afforestation and Reforestation</t>
+  </si>
+  <si>
+    <t>1 há</t>
+  </si>
+  <si>
+    <t>In Brazil, there is around 21 Mha of degraded land.</t>
+  </si>
+  <si>
+    <t>Table 38, page 142.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Afforestation / Reforestation variable is related to planting forests, whether in areas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">previously occupied by forests or not, according to the EPS website. For the Brazilian version, it </t>
+  </si>
+  <si>
+    <t>is understood as planted forests (those that are of commercial interest).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aforementioned report made estimates for this sector, </t>
+  </si>
+  <si>
+    <t>based on the main genus cultivated in the country, Eucalyptus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The obtaining of the possible area for reforestation throughout the run of the model occurred </t>
+  </si>
+  <si>
+    <t xml:space="preserve">by calculating the area of the final (2050) </t>
+  </si>
+  <si>
+    <t>minus the initial area (2015), of the reference scenario.</t>
+  </si>
+  <si>
+    <t>há per year</t>
+  </si>
+  <si>
+    <t>acres per year</t>
+  </si>
+  <si>
+    <t>Not used in the Brazilian version</t>
+  </si>
+  <si>
+    <t>We chose to implement the same for years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Given the existence of the Forest Restoration variable, the planting of trees aimed at </t>
+  </si>
+  <si>
+    <t>forest restoration, centered on native species, is accounted for there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the period of 2020 - 2050 </t>
+  </si>
+  <si>
+    <t>Final area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial area </t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to differences in the forest reality between USA and Brazil, (such as plant formations, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">types of management, representativeness, data), Forest set asides, Improved forest </t>
+  </si>
+  <si>
+    <t>management and peatland restoration policies are not applicable to the Brazilian version.</t>
+  </si>
+  <si>
+    <t>Report: "Quarta Comunicação Nacional e Relatórios De Atualização Bienal Do Brasil à Convenção-Quadro das Nações Unidas Sobre Mudança do Clima"</t>
+  </si>
+  <si>
+    <t>Version: "Relatório de referência para consulta pública - LULUCF"</t>
+  </si>
+  <si>
+    <t>http://antigo.mctic.gov.br/mctic/opencms/ciencia/SEPED/clima/Comunicacao_Nacional/Comunicacao_Nacional.html</t>
+  </si>
+  <si>
+    <t>Potential  Avoided Deforestation per year</t>
+  </si>
+  <si>
+    <t>Therefore, this is the area that may have deforestation avoided annually.</t>
   </si>
   <si>
     <t>Km²</t>
   </si>
   <si>
-    <t>* 1 Km² = 100 ha</t>
-  </si>
-  <si>
-    <t>*1 ha = 2,47 acres</t>
-  </si>
-  <si>
-    <t>Great part of this area is likely to be recovery by forest restoration.</t>
-  </si>
-  <si>
-    <t>acres available per year for forest restorarion, considering</t>
-  </si>
-  <si>
-    <t>Avoided Deforestation</t>
-  </si>
-  <si>
-    <t>Page 216, table 76</t>
-  </si>
-  <si>
-    <t>http://www.mctic.gov.br/mctic/export/sites/institucional/ciencia/SEPED/clima/arquivos/projeto_opcoes_mitigacao/publicacoes/AFOLU.pdf</t>
-  </si>
-  <si>
-    <t>Brazilian Ministry of Science, Technology, Innovation and Communication (MCTIC)</t>
-  </si>
-  <si>
-    <t>Report: "Opções de mitigação de gases de efeito estufa em setores-chave do Brasil"</t>
-  </si>
-  <si>
-    <t>Version: "Modelagem Setorial  de opções de baixo carbono para agricultura, florestas e outros usos do solo (AFOLU)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest Restoration </t>
-  </si>
-  <si>
-    <t>Page 216, table 77</t>
-  </si>
-  <si>
-    <t>Area Available for Afforestation and Reforestation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A national tagert, set as a "Reference Scenario" in the refence document, </t>
-  </si>
-  <si>
-    <t>1 há</t>
-  </si>
-  <si>
-    <t>In Brazil, an average of 47.334 Km² of biomes are deforested per year.</t>
-  </si>
-  <si>
-    <t>Million acres per year</t>
-  </si>
-  <si>
-    <t>Potential  Avoided Deforestation per year</t>
-  </si>
-  <si>
-    <t>In Brazil, there is around 21 Mha of degraded land.</t>
-  </si>
-  <si>
-    <t>Then, the diffence of these values represent the biome area that could be</t>
-  </si>
-  <si>
-    <t>Table 39, p.144 and table 76, p.216.</t>
-  </si>
-  <si>
-    <t>Table 38, page 142.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Afforestation / Reforestation variable is related to planting forests, whether in areas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">previously occupied by forests or not, according to the EPS website. For the Brazilian version, it </t>
-  </si>
-  <si>
-    <t>is understood as planted forests (those that are of commercial interest).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The aforementioned report made estimates for this sector, </t>
-  </si>
-  <si>
-    <t>based on the main genus cultivated in the country, Eucalyptus spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The obtaining of the possible area for reforestation throughout the run of the model occurred </t>
-  </si>
-  <si>
-    <t xml:space="preserve">by calculating the area of the final (2050) </t>
-  </si>
-  <si>
-    <t>minus the initial area (2015), of the reference scenario.</t>
-  </si>
-  <si>
-    <t>há per year</t>
-  </si>
-  <si>
-    <t>acres per year</t>
-  </si>
-  <si>
-    <t>Not used in the Brazilian version</t>
-  </si>
-  <si>
-    <t>We chose to implement the same for years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Given the existence of the Forest Restoration variable, the planting of trees aimed at </t>
-  </si>
-  <si>
-    <t>forest restoration, centered on native species, is accounted for there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the period of 2020 - 2050 </t>
-  </si>
-  <si>
-    <t>Final area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial area </t>
-  </si>
-  <si>
-    <t>Acre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to differences in the forest reality between USA and Brazil, (such as plant formations, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">types of management, representativeness, data), Forest set asides, Improved forest </t>
-  </si>
-  <si>
-    <t>management and peatland restoration policies are not applicable to the Brazilian version.</t>
+    <t>In Brazil, an average of 24,073 Km² of biomes are deforested per year between 2010 and 2016.</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>ha/km2</t>
+  </si>
+  <si>
+    <t>acres/ha</t>
+  </si>
+  <si>
+    <t>acres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +290,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -308,13 +318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,9 +341,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -349,11 +359,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,11 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -378,12 +379,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,9 +412,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,9 +452,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,7 +489,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,7 +524,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,21 +700,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="80.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -709,145 +722,143 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B23" s="26"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="8"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -865,158 +876,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="12">
         <v>12356792</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="12">
         <v>6996812</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="22">
         <f>A20-A21</f>
         <v>5359980</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="D24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <f>A22/31</f>
         <v>172902.5806451613</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>2.47105</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <f>A25*D25</f>
         <v>427250.92190322583</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <f>A26</f>
         <v>427250.92190322583</v>
@@ -1025,32 +1036,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="25"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="9"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
     </row>
   </sheetData>
@@ -1066,44 +1077,44 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="10"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1112,102 +1123,197 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>27247</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2.72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <f>A11*2.47</f>
-        <v>6.7184000000000008</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>6.7183999999999999</v>
-      </c>
-      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="30">
+        <v>24073</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="30">
+        <f>A4*C5</f>
+        <v>2407300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="31">
+        <f>A5*C6</f>
+        <v>5948558.665</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>2.47105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="32">
+        <f>A6</f>
+        <v>5948558.665</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>6718400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>6718400</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="27"/>
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="20"/>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" s="19"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="23"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25" s="20"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="14"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" s="19"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="14"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1222,69 +1328,69 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="19"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="19"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="20"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="19"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="21"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="19"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="19"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="14"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1299,76 +1405,76 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
         <v>40530000</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="13">
         <f>A11/31</f>
         <v>1307419.3548387096</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1384,29 +1490,32 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="33">
         <v>2016</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="33">
         <v>2017</v>
       </c>
-      <c r="D1" s="23">
+      <c r="D1" s="33">
         <v>2018</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="33">
         <v>2019</v>
       </c>
       <c r="F1" s="2">
@@ -1503,20 +1612,24 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24">
-        <v>0</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24">
+      <c r="B2" s="34">
+        <f>'Set Asides'!$A36</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <f>'Set Asides'!$A36</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="34">
+        <f>'Set Asides'!$A36</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="34">
+        <f>'Set Asides'!$A36</f>
         <v>0</v>
       </c>
       <c r="F2" s="6">
@@ -1644,21 +1757,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0</v>
-      </c>
-      <c r="E3" s="24">
-        <v>0</v>
+      <c r="B3" s="34">
+        <f>'Aff Ref'!$A29</f>
+        <v>427250.92190322583</v>
+      </c>
+      <c r="C3" s="34">
+        <f>'Aff Ref'!$A29</f>
+        <v>427250.92190322583</v>
+      </c>
+      <c r="D3" s="34">
+        <f>'Aff Ref'!$A29</f>
+        <v>427250.92190322583</v>
+      </c>
+      <c r="E3" s="34">
+        <f>'Aff Ref'!$A29</f>
+        <v>427250.92190322583</v>
       </c>
       <c r="F3" s="6">
         <f>'Aff Ref'!$A29</f>
@@ -1785,20 +1902,24 @@
         <v>427250.92190322583</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="B4" s="34">
+        <f>'Impr Forest Mgmt'!$A19</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
+        <f>'Impr Forest Mgmt'!$A19</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="34">
+        <f>'Impr Forest Mgmt'!$A19</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <f>'Impr Forest Mgmt'!$A19</f>
         <v>0</v>
       </c>
       <c r="F4" s="6">
@@ -1926,161 +2047,165 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24">
-        <v>0</v>
-      </c>
-      <c r="C5" s="24">
-        <v>0</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0</v>
+      <c r="B5" s="34">
+        <f>'Avoided Def'!A9</f>
+        <v>5948558.665</v>
+      </c>
+      <c r="C5" s="34">
+        <f>B5</f>
+        <v>5948558.665</v>
+      </c>
+      <c r="D5" s="34">
+        <f>B5</f>
+        <v>5948558.665</v>
+      </c>
+      <c r="E5" s="34">
+        <f>B5</f>
+        <v>5948558.665</v>
       </c>
       <c r="F5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" ref="F5:AJ5" si="0">B5</f>
+        <v>5948558.665</v>
       </c>
       <c r="G5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="H5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="I5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="J5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="K5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="L5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="M5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="N5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="O5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="P5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="Q5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="R5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="S5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="T5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="U5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="V5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="W5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="X5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="Y5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="Z5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AA5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AB5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AC5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AD5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AE5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AF5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AG5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AH5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AI5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
       </c>
       <c r="AJ5" s="6">
-        <f>'Avoided Def'!$A18</f>
-        <v>6718400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5948558.665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="B6" s="35">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0</v>
+      </c>
+      <c r="E6" s="35">
         <v>0</v>
       </c>
       <c r="F6">
@@ -2177,21 +2302,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24">
-        <v>0</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0</v>
+      <c r="B7" s="34">
+        <f>'Forest Restoration'!$A14</f>
+        <v>1307419.3548387096</v>
+      </c>
+      <c r="C7" s="34">
+        <f>'Forest Restoration'!$A14</f>
+        <v>1307419.3548387096</v>
+      </c>
+      <c r="D7" s="34">
+        <f>'Forest Restoration'!$A14</f>
+        <v>1307419.3548387096</v>
+      </c>
+      <c r="E7" s="34">
+        <f>'Forest Restoration'!$A14</f>
+        <v>1307419.3548387096</v>
       </c>
       <c r="F7" s="6">
         <f>'Forest Restoration'!$A14</f>
